--- a/SpMVC_EMS/EMS 테이블 양식.xlsx
+++ b/SpMVC_EMS/EMS 테이블 양식.xlsx
@@ -178,10 +178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>form_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>to_email</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -243,6 +239,10 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>from_email</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1713,14 +1713,14 @@
         <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1738,13 +1738,13 @@
         <v>33</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1763,13 +1763,13 @@
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1788,10 +1788,10 @@
         <v>34</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="4"/>
@@ -1811,10 +1811,10 @@
         <v>35</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="4"/>
@@ -1834,10 +1834,10 @@
         <v>36</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="4"/>
@@ -1857,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="4"/>
@@ -1880,10 +1880,10 @@
         <v>36</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="4"/>
@@ -1903,10 +1903,10 @@
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
